--- a/widthHCeditedforR.xlsx
+++ b/widthHCeditedforR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="15000" windowHeight="16060" tabRatio="659" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="15000" windowHeight="16060" tabRatio="659" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ColdYounger" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
   <si>
     <t>Ind48_right_60xobj_YAYHAIR</t>
   </si>
@@ -269,21 +269,12 @@
   <si>
     <t>HC_width_in_um</t>
   </si>
-  <si>
-    <t>Ind15_right_60xobj</t>
-  </si>
-  <si>
-    <t>Ind15_right_60xobj_second</t>
-  </si>
-  <si>
-    <t>Ind15_right_60xobj_third</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,8 +308,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +327,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,7 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -391,6 +395,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -10472,10 +10478,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296:XFD323"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10502,4705 +10508,2650 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>C2*D2</f>
+      <c r="C2" s="9">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E48" si="0">C3*D3</f>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="2">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="C8" s="2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43279</v>
-      </c>
-      <c r="C11">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="9">
         <v>5</v>
       </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="C22">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-    </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9">
         <v>5</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="C26" s="2">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" s="2">
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9">
+        <v>7</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9">
+        <v>8</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="2">
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9">
+        <v>8</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9">
+        <v>7</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="2">
+      <c r="C37" s="9">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9">
+        <v>6</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9">
+        <v>8</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9">
+        <v>8</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9">
         <v>7</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="C30" s="2">
+    <row r="42" spans="1:5">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9">
+        <v>8</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9">
+        <v>8</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9">
+        <v>7</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9">
+        <v>6</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9">
+        <v>6</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9">
+        <v>6</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9">
+        <v>8</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9">
+        <v>8</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9">
+        <v>6</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9">
+        <v>8</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9">
+        <v>10</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9">
+        <v>7</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
+      <c r="C58" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" s="2">
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9">
+        <v>8</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9">
+        <v>7</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9">
+        <v>4</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9">
+        <v>3</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="2">
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8">
         <v>5</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9">
+        <v>8</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9">
+        <v>7</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9">
+        <v>8</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1</v>
+      </c>
+      <c r="E67" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="2">
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9">
+        <v>4</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9">
+        <v>4</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9">
+        <v>4</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1</v>
+      </c>
+      <c r="E71" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
+      <c r="C72" s="9">
+        <v>3</v>
+      </c>
+      <c r="D72" s="8">
+        <v>2</v>
+      </c>
+      <c r="E72" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9">
+        <v>4</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2</v>
+      </c>
+      <c r="E73" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9">
+        <v>4</v>
+      </c>
+      <c r="D74" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9">
+        <v>3</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2</v>
+      </c>
+      <c r="E75" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9">
+        <v>4</v>
+      </c>
+      <c r="D76" s="8">
+        <v>2</v>
+      </c>
+      <c r="E76" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9">
+        <v>4</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2</v>
+      </c>
+      <c r="E77" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9">
+        <v>3</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9">
+        <v>5</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9">
+        <v>5</v>
+      </c>
+      <c r="D80" s="8">
+        <v>2</v>
+      </c>
+      <c r="E80" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8">
+        <v>2</v>
+      </c>
+      <c r="E81" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9">
+        <v>5</v>
+      </c>
+      <c r="D82" s="8">
+        <v>2</v>
+      </c>
+      <c r="E82" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9">
+        <v>5</v>
+      </c>
+      <c r="D83" s="8">
+        <v>2</v>
+      </c>
+      <c r="E83" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9">
+        <v>4</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2</v>
+      </c>
+      <c r="E84" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9">
+        <v>3</v>
+      </c>
+      <c r="D85" s="8">
+        <v>2</v>
+      </c>
+      <c r="E85" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9">
+        <v>3</v>
+      </c>
+      <c r="D86" s="8">
+        <v>2</v>
+      </c>
+      <c r="E86" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9">
+        <v>2</v>
+      </c>
+      <c r="D87" s="8">
+        <v>2</v>
+      </c>
+      <c r="E87" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9">
+        <v>2</v>
+      </c>
+      <c r="D88" s="8">
+        <v>2</v>
+      </c>
+      <c r="E88" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9">
+        <v>4</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2</v>
+      </c>
+      <c r="E89" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9">
+        <v>4</v>
+      </c>
+      <c r="D90" s="8">
+        <v>2</v>
+      </c>
+      <c r="E90" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9">
+        <v>2</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2</v>
+      </c>
+      <c r="E91" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>2</v>
+      </c>
+      <c r="E92" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="2">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="2">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="2">
+      <c r="C93" s="9">
+        <v>3</v>
+      </c>
+      <c r="D93" s="8">
+        <v>2</v>
+      </c>
+      <c r="E93" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9">
+        <v>3</v>
+      </c>
+      <c r="D94" s="8">
+        <v>2</v>
+      </c>
+      <c r="E94" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9">
+        <v>3</v>
+      </c>
+      <c r="D95" s="8">
+        <v>2</v>
+      </c>
+      <c r="E95" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9">
+        <v>3</v>
+      </c>
+      <c r="D96" s="8">
+        <v>2</v>
+      </c>
+      <c r="E96" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9">
+        <v>3</v>
+      </c>
+      <c r="D97" s="8">
+        <v>2</v>
+      </c>
+      <c r="E97" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9">
+        <v>3</v>
+      </c>
+      <c r="D98" s="8">
+        <v>2</v>
+      </c>
+      <c r="E98" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9">
+        <v>2</v>
+      </c>
+      <c r="D99" s="8">
+        <v>2</v>
+      </c>
+      <c r="E99" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9">
+        <v>2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>2</v>
+      </c>
+      <c r="E100" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9">
+        <v>2</v>
+      </c>
+      <c r="D101" s="8">
+        <v>2</v>
+      </c>
+      <c r="E101" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9">
+        <v>2</v>
+      </c>
+      <c r="D102" s="8">
+        <v>2</v>
+      </c>
+      <c r="E102" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9">
+        <v>2</v>
+      </c>
+      <c r="D103" s="8">
+        <v>2</v>
+      </c>
+      <c r="E103" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="9">
+        <v>4</v>
+      </c>
+      <c r="D104" s="8">
+        <v>2</v>
+      </c>
+      <c r="E104" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9">
+        <v>4</v>
+      </c>
+      <c r="D105" s="8">
+        <v>2</v>
+      </c>
+      <c r="E105" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9">
+        <v>4</v>
+      </c>
+      <c r="D106" s="8">
+        <v>2</v>
+      </c>
+      <c r="E106" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9">
+        <v>3</v>
+      </c>
+      <c r="D107" s="8">
+        <v>2</v>
+      </c>
+      <c r="E107" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9">
+        <v>3</v>
+      </c>
+      <c r="D108" s="8">
+        <v>2</v>
+      </c>
+      <c r="E108" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9">
+        <v>3</v>
+      </c>
+      <c r="D109" s="8">
+        <v>2</v>
+      </c>
+      <c r="E109" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9">
+        <v>3</v>
+      </c>
+      <c r="D110" s="8">
+        <v>2</v>
+      </c>
+      <c r="E110" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9">
+        <v>4</v>
+      </c>
+      <c r="D111" s="8">
+        <v>2</v>
+      </c>
+      <c r="E111" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9">
+        <v>3</v>
+      </c>
+      <c r="D112" s="8">
+        <v>2</v>
+      </c>
+      <c r="E112" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9">
+        <v>3</v>
+      </c>
+      <c r="D113" s="8">
+        <v>2</v>
+      </c>
+      <c r="E113" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9">
+        <v>3</v>
+      </c>
+      <c r="D114" s="8">
+        <v>2</v>
+      </c>
+      <c r="E114" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9">
+        <v>3</v>
+      </c>
+      <c r="D115" s="8">
+        <v>2</v>
+      </c>
+      <c r="E115" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9">
+        <v>3</v>
+      </c>
+      <c r="D116" s="8">
+        <v>2</v>
+      </c>
+      <c r="E116" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9">
+        <v>3</v>
+      </c>
+      <c r="D117" s="8">
+        <v>2</v>
+      </c>
+      <c r="E117" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9">
+        <v>3</v>
+      </c>
+      <c r="D118" s="8">
+        <v>2</v>
+      </c>
+      <c r="E118" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9">
+        <v>3</v>
+      </c>
+      <c r="D119" s="8">
+        <v>2</v>
+      </c>
+      <c r="E119" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9">
+        <v>3</v>
+      </c>
+      <c r="D120" s="8">
+        <v>2</v>
+      </c>
+      <c r="E120" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9">
+        <v>3</v>
+      </c>
+      <c r="D121" s="8">
+        <v>2</v>
+      </c>
+      <c r="E121" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9">
+        <v>3</v>
+      </c>
+      <c r="D122" s="8">
+        <v>2</v>
+      </c>
+      <c r="E122" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9">
+        <v>2</v>
+      </c>
+      <c r="D123" s="8">
+        <v>2</v>
+      </c>
+      <c r="E123" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="9">
+        <v>2</v>
+      </c>
+      <c r="D124" s="8">
+        <v>2</v>
+      </c>
+      <c r="E124" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="9">
+        <v>2</v>
+      </c>
+      <c r="D125" s="8">
+        <v>2</v>
+      </c>
+      <c r="E125" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9">
+        <v>4</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2</v>
+      </c>
+      <c r="E126" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9">
+        <v>3</v>
+      </c>
+      <c r="D127" s="8">
+        <v>2</v>
+      </c>
+      <c r="E127" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9">
+        <v>3</v>
+      </c>
+      <c r="D128" s="8">
+        <v>2</v>
+      </c>
+      <c r="E128" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9">
+        <v>3</v>
+      </c>
+      <c r="D129" s="8">
+        <v>2</v>
+      </c>
+      <c r="E129" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="9">
+        <v>4</v>
+      </c>
+      <c r="D130" s="8">
+        <v>2</v>
+      </c>
+      <c r="E130" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="9">
+        <v>3</v>
+      </c>
+      <c r="D131" s="8">
+        <v>2</v>
+      </c>
+      <c r="E131" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="9">
+        <v>3</v>
+      </c>
+      <c r="D132" s="8">
+        <v>2</v>
+      </c>
+      <c r="E132" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="9">
+        <v>4</v>
+      </c>
+      <c r="D133" s="8">
+        <v>2</v>
+      </c>
+      <c r="E133" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="9">
+        <v>2</v>
+      </c>
+      <c r="D134" s="8">
+        <v>2</v>
+      </c>
+      <c r="E134" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="9">
+        <v>3</v>
+      </c>
+      <c r="D135" s="8">
+        <v>2</v>
+      </c>
+      <c r="E135" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="9">
+        <v>3</v>
+      </c>
+      <c r="D136" s="8">
+        <v>2</v>
+      </c>
+      <c r="E136" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="9">
+        <v>3</v>
+      </c>
+      <c r="D137" s="8">
+        <v>2</v>
+      </c>
+      <c r="E137" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="9">
+        <v>2</v>
+      </c>
+      <c r="D138" s="8">
+        <v>2</v>
+      </c>
+      <c r="E138" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="9">
+        <v>3</v>
+      </c>
+      <c r="D139" s="8">
+        <v>2</v>
+      </c>
+      <c r="E139" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="9">
+        <v>4</v>
+      </c>
+      <c r="D140" s="8">
+        <v>2</v>
+      </c>
+      <c r="E140" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="9">
+        <v>3</v>
+      </c>
+      <c r="D141" s="8">
+        <v>2</v>
+      </c>
+      <c r="E141" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="9">
+        <v>3</v>
+      </c>
+      <c r="D142" s="8">
+        <v>2</v>
+      </c>
+      <c r="E142" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="9">
+        <v>2</v>
+      </c>
+      <c r="D143" s="8">
+        <v>2</v>
+      </c>
+      <c r="E143" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="9">
+        <v>3</v>
+      </c>
+      <c r="D144" s="8">
+        <v>2</v>
+      </c>
+      <c r="E144" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="9">
+        <v>4</v>
+      </c>
+      <c r="D145" s="8">
+        <v>2</v>
+      </c>
+      <c r="E145" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="9">
+        <v>2</v>
+      </c>
+      <c r="D146" s="8">
+        <v>2</v>
+      </c>
+      <c r="E146" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="9">
+        <v>3</v>
+      </c>
+      <c r="D147" s="8">
+        <v>2</v>
+      </c>
+      <c r="E147" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="9">
+        <v>2</v>
+      </c>
+      <c r="D148" s="8">
+        <v>2</v>
+      </c>
+      <c r="E148" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="9">
+        <v>2</v>
+      </c>
+      <c r="D149" s="8">
+        <v>2</v>
+      </c>
+      <c r="E149" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="9">
+        <v>3</v>
+      </c>
+      <c r="D150" s="8">
+        <v>2</v>
+      </c>
+      <c r="E150" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="9">
+        <v>3</v>
+      </c>
+      <c r="D151" s="8">
+        <v>2</v>
+      </c>
+      <c r="E151" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="9">
+        <v>3</v>
+      </c>
+      <c r="D152" s="8">
+        <v>2</v>
+      </c>
+      <c r="E152" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="9">
+        <v>3</v>
+      </c>
+      <c r="D153" s="8">
+        <v>2</v>
+      </c>
+      <c r="E153" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="9">
+        <v>2</v>
+      </c>
+      <c r="D154" s="8">
+        <v>2</v>
+      </c>
+      <c r="E154" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="9">
+        <v>3</v>
+      </c>
+      <c r="D155" s="8">
+        <v>2</v>
+      </c>
+      <c r="E155" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="9">
+        <v>3</v>
+      </c>
+      <c r="D156" s="8">
+        <v>2</v>
+      </c>
+      <c r="E156" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="9">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="2">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="2">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="2">
-        <v>6</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="2">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="2">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="2">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="2">
+      <c r="D157" s="8">
+        <v>2</v>
+      </c>
+      <c r="E157" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="9">
+        <v>4</v>
+      </c>
+      <c r="D158" s="8">
+        <v>2</v>
+      </c>
+      <c r="E158" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="9">
+        <v>4</v>
+      </c>
+      <c r="D159" s="8">
+        <v>2</v>
+      </c>
+      <c r="E159" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="9">
+        <v>4</v>
+      </c>
+      <c r="D160" s="8">
+        <v>2</v>
+      </c>
+      <c r="E160" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="9">
+        <v>4</v>
+      </c>
+      <c r="D161" s="8">
+        <v>2</v>
+      </c>
+      <c r="E161" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="9">
+        <v>3</v>
+      </c>
+      <c r="D162" s="8">
+        <v>2</v>
+      </c>
+      <c r="E162" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="9">
+        <v>4</v>
+      </c>
+      <c r="D163" s="8">
+        <v>2</v>
+      </c>
+      <c r="E163" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="9">
+        <v>3</v>
+      </c>
+      <c r="D164" s="8">
+        <v>2</v>
+      </c>
+      <c r="E164" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="9">
+        <v>4</v>
+      </c>
+      <c r="D165" s="8">
+        <v>2</v>
+      </c>
+      <c r="E165" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="9">
+        <v>3</v>
+      </c>
+      <c r="D166" s="8">
+        <v>2</v>
+      </c>
+      <c r="E166" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="9">
+        <v>3</v>
+      </c>
+      <c r="D167" s="8">
+        <v>2</v>
+      </c>
+      <c r="E167" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="9">
+        <v>3</v>
+      </c>
+      <c r="D168" s="8">
+        <v>2</v>
+      </c>
+      <c r="E168" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="9">
+        <v>3</v>
+      </c>
+      <c r="D169" s="8">
+        <v>2</v>
+      </c>
+      <c r="E169" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="9">
+        <v>4</v>
+      </c>
+      <c r="D170" s="8">
+        <v>2</v>
+      </c>
+      <c r="E170" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="9">
+        <v>3</v>
+      </c>
+      <c r="D171" s="8">
+        <v>2</v>
+      </c>
+      <c r="E171" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="9">
+        <v>4</v>
+      </c>
+      <c r="D172" s="8">
+        <v>2</v>
+      </c>
+      <c r="E172" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="9">
+        <v>3</v>
+      </c>
+      <c r="D173" s="8">
+        <v>2</v>
+      </c>
+      <c r="E173" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="9">
+        <v>4</v>
+      </c>
+      <c r="D174" s="8">
+        <v>2</v>
+      </c>
+      <c r="E174" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="9">
+        <v>4</v>
+      </c>
+      <c r="D175" s="8">
+        <v>2</v>
+      </c>
+      <c r="E175" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="9">
+        <v>2</v>
+      </c>
+      <c r="D176" s="8">
+        <v>2</v>
+      </c>
+      <c r="E176" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="9">
+        <v>4</v>
+      </c>
+      <c r="D177" s="8">
+        <v>2</v>
+      </c>
+      <c r="E177" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="2">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="2">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="2">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="2">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="2">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="C49" s="2">
-        <v>4</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <f>C49*D49</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="3">
-        <v>43279</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="C58">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="C60">
-        <v>6</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5">
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5">
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5">
-      <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5">
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5">
-      <c r="C70">
-        <v>6</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="C71">
-        <v>6</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72">
-        <v>6</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5">
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5">
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="C76">
-        <v>8</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="C77">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5">
-      <c r="C78">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5">
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5">
-      <c r="C80">
-        <v>5</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="C82">
-        <v>5</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="C83">
-        <v>8</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="C84">
-        <v>8</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="C85">
-        <v>5</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="C86">
-        <v>6</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="C88">
-        <v>5</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="C89">
-        <v>5</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="2">
-        <v>6</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <f t="shared" ref="E90:E110" si="1">C90*D90</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="C91" s="2">
-        <v>6</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="C92" s="2">
-        <v>8</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="C93" s="2">
-        <v>8</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="C94" s="2">
-        <v>7</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="C95" s="2">
-        <v>9</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="C96" s="2">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="C97" s="2">
-        <v>8</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="C98" s="2">
-        <v>7</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="C99" s="2">
-        <v>6</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="C100" s="2">
-        <v>6</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="C101" s="2">
-        <v>6</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="C102" s="2">
-        <v>8</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="C103" s="2">
-        <v>8</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="C104" s="2">
-        <v>6</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="C105" s="2">
-        <v>9</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="C106" s="2">
-        <v>8</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="C107" s="2">
-        <v>9</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="C108" s="2">
-        <v>7</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="C109" s="2">
-        <v>10</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="C110" s="2">
-        <v>7</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="3">
-        <v>43279</v>
-      </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="C112">
-        <v>4</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5">
-      <c r="C113">
-        <v>4</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5">
-      <c r="C114">
-        <v>5</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5">
-      <c r="C115">
-        <v>4</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5">
-      <c r="C116">
-        <v>6</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5">
-      <c r="C117">
-        <v>5</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5">
-      <c r="C118">
-        <v>5</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5">
-      <c r="C119">
-        <v>5</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5">
-      <c r="C120">
-        <v>6</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5">
-      <c r="C121">
-        <v>7</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5">
-      <c r="C122">
-        <v>6</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5">
-      <c r="C123">
-        <v>8</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5">
-      <c r="C124">
-        <v>8</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5">
-      <c r="C125">
-        <v>6</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5">
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5">
-      <c r="C127">
-        <v>7</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5">
-      <c r="C128">
-        <v>7</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5">
-      <c r="C129">
-        <v>7</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5">
-      <c r="C130">
-        <v>6</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5">
-      <c r="C131">
-        <v>6</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5">
-      <c r="C132">
-        <v>6</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5">
-      <c r="C133">
-        <v>7</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5">
-      <c r="C134">
-        <v>5</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5">
-      <c r="C135">
-        <v>5</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5">
-      <c r="C136">
-        <v>5</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5">
-      <c r="C137">
-        <v>4</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5">
-      <c r="C138">
-        <v>4</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5">
-      <c r="C139">
-        <v>4</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5">
-      <c r="C140">
-        <v>3</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5">
-      <c r="C141">
-        <v>4</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5">
-      <c r="C142">
-        <v>4</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5">
-      <c r="C143">
-        <v>5</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5">
-      <c r="C144">
-        <v>3</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" s="2">
-        <v>5</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <f t="shared" ref="E145:E158" si="2">C145*D145</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="C146" s="2">
-        <v>8</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="C147" s="2">
-        <v>7</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="C148" s="2">
-        <v>4</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="C149" s="2">
-        <v>3</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="C150" s="2">
-        <v>5</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="C151" s="2">
-        <v>8</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="C152" s="2">
-        <v>7</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="C153" s="2">
-        <v>6</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="C154" s="2">
-        <v>8</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="C155" s="2">
-        <v>5</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="C156" s="2">
-        <v>4</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="C157" s="2">
-        <v>4</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="C158" s="2">
-        <v>4</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>17</v>
-      </c>
-      <c r="B159" s="3">
-        <v>43279</v>
-      </c>
-      <c r="C159">
-        <v>3</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="C160">
-        <v>4</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5">
-      <c r="C161">
-        <v>5</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5">
-      <c r="C162">
-        <v>4</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5">
-      <c r="C163">
-        <v>5</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="E163">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5">
-      <c r="C164">
-        <v>3</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="E164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5">
-      <c r="C165">
-        <v>3</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="E165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5">
-      <c r="C166">
-        <v>3</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5">
-      <c r="C167">
-        <v>4</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5">
-      <c r="C168">
-        <v>4</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-      <c r="E168">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5">
-      <c r="C169">
-        <v>3</v>
-      </c>
-      <c r="D169">
-        <v>1</v>
-      </c>
-      <c r="E169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5">
-      <c r="C170">
-        <v>3</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-      <c r="E170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5">
-      <c r="C171">
-        <v>4</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-      <c r="E171">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5">
-      <c r="C172">
-        <v>4</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-      <c r="E172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5">
-      <c r="C173">
-        <v>5</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-      <c r="E173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5">
-      <c r="C174">
-        <v>4</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5">
-      <c r="C175">
-        <v>4</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="E175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5">
-      <c r="C176">
-        <v>5</v>
-      </c>
-      <c r="D176">
-        <v>1</v>
-      </c>
-      <c r="E176">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="C177">
-        <v>6</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-      <c r="E177">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="C178">
-        <v>3</v>
-      </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
-      <c r="E178">
-        <v>3</v>
+      <c r="C178" s="9">
+        <v>2</v>
+      </c>
+      <c r="D178" s="8">
+        <v>2</v>
+      </c>
+      <c r="E178" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="C179">
-        <v>4</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179">
-        <v>4</v>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="9">
+        <v>3</v>
+      </c>
+      <c r="D179" s="8">
+        <v>2</v>
+      </c>
+      <c r="E179" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="C180">
-        <v>4</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180">
-        <v>4</v>
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="9">
+        <v>3</v>
+      </c>
+      <c r="D180" s="8">
+        <v>2</v>
+      </c>
+      <c r="E180" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="C181">
-        <v>4</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
-        <v>4</v>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="9">
+        <v>4</v>
+      </c>
+      <c r="D181" s="8">
+        <v>2</v>
+      </c>
+      <c r="E181" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="C182">
-        <v>5</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="E182">
-        <v>5</v>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="9">
+        <v>3</v>
+      </c>
+      <c r="D182" s="8">
+        <v>2</v>
+      </c>
+      <c r="E182" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="C183">
-        <v>5</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
-      <c r="E183">
-        <v>5</v>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="9">
+        <v>3</v>
+      </c>
+      <c r="D183" s="8">
+        <v>2</v>
+      </c>
+      <c r="E183" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="C184">
-        <v>5</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-      <c r="E184">
-        <v>5</v>
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="9">
+        <v>2</v>
+      </c>
+      <c r="D184" s="8">
+        <v>2</v>
+      </c>
+      <c r="E184" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="C185">
-        <v>6</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>6</v>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="9">
+        <v>4</v>
+      </c>
+      <c r="D185" s="8">
+        <v>2</v>
+      </c>
+      <c r="E185" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="C186">
-        <v>6</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="9">
+        <v>3</v>
+      </c>
+      <c r="D186" s="8">
+        <v>2</v>
+      </c>
+      <c r="E186" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="C187">
-        <v>5</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="E187">
-        <v>5</v>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="9">
+        <v>3</v>
+      </c>
+      <c r="D187" s="8">
+        <v>2</v>
+      </c>
+      <c r="E187" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="C188">
-        <v>6</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="E188">
-        <v>6</v>
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="9">
+        <v>4</v>
+      </c>
+      <c r="D188" s="8">
+        <v>2</v>
+      </c>
+      <c r="E188" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="C189">
-        <v>5</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189">
-        <v>5</v>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="9">
+        <v>3</v>
+      </c>
+      <c r="D189" s="8">
+        <v>2</v>
+      </c>
+      <c r="E189" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="C190">
-        <v>5</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="E190">
-        <v>5</v>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="9">
+        <v>3</v>
+      </c>
+      <c r="D190" s="8">
+        <v>2</v>
+      </c>
+      <c r="E190" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>18</v>
-      </c>
-      <c r="B191" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="2">
-        <v>3</v>
-      </c>
-      <c r="D191">
-        <v>2</v>
-      </c>
-      <c r="E191">
-        <f t="shared" ref="E191:E211" si="3">C191*D191</f>
-        <v>6</v>
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="9">
+        <v>4</v>
+      </c>
+      <c r="D191" s="8">
+        <v>2</v>
+      </c>
+      <c r="E191" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="C192" s="2">
-        <v>4</v>
-      </c>
-      <c r="D192">
-        <v>2</v>
-      </c>
-      <c r="E192">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5">
-      <c r="C193" s="2">
-        <v>4</v>
-      </c>
-      <c r="D193">
-        <v>2</v>
-      </c>
-      <c r="E193">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5">
-      <c r="C194" s="2">
-        <v>3</v>
-      </c>
-      <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="E194">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5">
-      <c r="C195" s="2">
-        <v>4</v>
-      </c>
-      <c r="D195">
-        <v>2</v>
-      </c>
-      <c r="E195">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5">
-      <c r="C196" s="2">
-        <v>4</v>
-      </c>
-      <c r="D196">
-        <v>2</v>
-      </c>
-      <c r="E196">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="3:5">
-      <c r="C197" s="2">
-        <v>3</v>
-      </c>
-      <c r="D197">
-        <v>2</v>
-      </c>
-      <c r="E197">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5">
-      <c r="C198" s="2">
-        <v>5</v>
-      </c>
-      <c r="D198">
-        <v>2</v>
-      </c>
-      <c r="E198">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="3:5">
-      <c r="C199" s="2">
-        <v>5</v>
-      </c>
-      <c r="D199">
-        <v>2</v>
-      </c>
-      <c r="E199">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="3:5">
-      <c r="C200" s="2">
-        <v>5</v>
-      </c>
-      <c r="D200">
-        <v>2</v>
-      </c>
-      <c r="E200">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5">
-      <c r="C201" s="2">
-        <v>5</v>
-      </c>
-      <c r="D201">
-        <v>2</v>
-      </c>
-      <c r="E201">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="3:5">
-      <c r="C202" s="2">
-        <v>5</v>
-      </c>
-      <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="E202">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5">
-      <c r="C203" s="2">
-        <v>4</v>
-      </c>
-      <c r="D203">
-        <v>2</v>
-      </c>
-      <c r="E203">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="C204" s="2">
-        <v>3</v>
-      </c>
-      <c r="D204">
-        <v>2</v>
-      </c>
-      <c r="E204">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5">
-      <c r="C205" s="2">
-        <v>3</v>
-      </c>
-      <c r="D205">
-        <v>2</v>
-      </c>
-      <c r="E205">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5">
-      <c r="C206" s="2">
-        <v>2</v>
-      </c>
-      <c r="D206">
-        <v>2</v>
-      </c>
-      <c r="E206">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="C207" s="2">
-        <v>2</v>
-      </c>
-      <c r="D207">
-        <v>2</v>
-      </c>
-      <c r="E207">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="C208" s="2">
-        <v>4</v>
-      </c>
-      <c r="D208">
-        <v>2</v>
-      </c>
-      <c r="E208">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="C209" s="2">
-        <v>4</v>
-      </c>
-      <c r="D209">
-        <v>2</v>
-      </c>
-      <c r="E209">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="C210" s="2">
-        <v>2</v>
-      </c>
-      <c r="D210">
-        <v>2</v>
-      </c>
-      <c r="E210">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="C211" s="2">
-        <v>2</v>
-      </c>
-      <c r="D211">
-        <v>2</v>
-      </c>
-      <c r="E211">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>81</v>
-      </c>
-      <c r="B212" s="3">
-        <v>43294</v>
-      </c>
-      <c r="C212">
-        <v>3</v>
-      </c>
-      <c r="D212">
-        <v>2</v>
-      </c>
-      <c r="E212">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="C213">
-        <v>4</v>
-      </c>
-      <c r="D213">
-        <v>2</v>
-      </c>
-      <c r="E213">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="C214">
-        <v>4</v>
-      </c>
-      <c r="D214">
-        <v>2</v>
-      </c>
-      <c r="E214">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="C215">
-        <v>3</v>
-      </c>
-      <c r="D215">
-        <v>2</v>
-      </c>
-      <c r="E215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="C216">
-        <v>3</v>
-      </c>
-      <c r="D216">
-        <v>2</v>
-      </c>
-      <c r="E216">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="C217">
-        <v>2</v>
-      </c>
-      <c r="D217">
-        <v>2</v>
-      </c>
-      <c r="E217">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="C218">
-        <v>3</v>
-      </c>
-      <c r="D218">
-        <v>2</v>
-      </c>
-      <c r="E218">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="C219">
-        <v>3</v>
-      </c>
-      <c r="D219">
-        <v>2</v>
-      </c>
-      <c r="E219">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="C220">
-        <v>3</v>
-      </c>
-      <c r="D220">
-        <v>2</v>
-      </c>
-      <c r="E220">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="C221">
-        <v>3</v>
-      </c>
-      <c r="D221">
-        <v>2</v>
-      </c>
-      <c r="E221">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="C222">
-        <v>3</v>
-      </c>
-      <c r="D222">
-        <v>2</v>
-      </c>
-      <c r="E222">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="C223">
-        <v>4</v>
-      </c>
-      <c r="D223">
-        <v>2</v>
-      </c>
-      <c r="E223">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="C224">
-        <v>4</v>
-      </c>
-      <c r="D224">
-        <v>2</v>
-      </c>
-      <c r="E224">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="C225">
-        <v>2</v>
-      </c>
-      <c r="D225">
-        <v>2</v>
-      </c>
-      <c r="E225">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="C226">
-        <v>2</v>
-      </c>
-      <c r="D226">
-        <v>2</v>
-      </c>
-      <c r="E226">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="C227">
-        <v>3</v>
-      </c>
-      <c r="D227">
-        <v>2</v>
-      </c>
-      <c r="E227">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="C228">
-        <v>3</v>
-      </c>
-      <c r="D228">
-        <v>2</v>
-      </c>
-      <c r="E228">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="C229">
-        <v>3</v>
-      </c>
-      <c r="D229">
-        <v>2</v>
-      </c>
-      <c r="E229">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="C230">
-        <v>3</v>
-      </c>
-      <c r="D230">
-        <v>2</v>
-      </c>
-      <c r="E230">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="C231">
-        <v>4</v>
-      </c>
-      <c r="D231">
-        <v>2</v>
-      </c>
-      <c r="E231">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="C232">
-        <v>4</v>
-      </c>
-      <c r="D232">
-        <v>2</v>
-      </c>
-      <c r="E232">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="C233">
-        <v>3</v>
-      </c>
-      <c r="D233">
-        <v>2</v>
-      </c>
-      <c r="E233">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="C234">
-        <v>3</v>
-      </c>
-      <c r="D234">
-        <v>2</v>
-      </c>
-      <c r="E234">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="C235">
-        <v>3</v>
-      </c>
-      <c r="D235">
-        <v>2</v>
-      </c>
-      <c r="E235">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="C236">
-        <v>4</v>
-      </c>
-      <c r="D236">
-        <v>2</v>
-      </c>
-      <c r="E236">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="C237">
-        <v>3</v>
-      </c>
-      <c r="D237">
-        <v>2</v>
-      </c>
-      <c r="E237">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
-        <v>19</v>
-      </c>
-      <c r="B238" t="s">
-        <v>7</v>
-      </c>
-      <c r="C238" s="2">
-        <v>3</v>
-      </c>
-      <c r="D238">
-        <v>2</v>
-      </c>
-      <c r="E238">
-        <f t="shared" ref="E238:E248" si="4">C238*D238</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="C239" s="2">
-        <v>3</v>
-      </c>
-      <c r="D239">
-        <v>2</v>
-      </c>
-      <c r="E239">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="C240" s="2">
-        <v>3</v>
-      </c>
-      <c r="D240">
-        <v>2</v>
-      </c>
-      <c r="E240">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="C241" s="2">
-        <v>3</v>
-      </c>
-      <c r="D241">
-        <v>2</v>
-      </c>
-      <c r="E241">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="C242" s="2">
-        <v>3</v>
-      </c>
-      <c r="D242">
-        <v>2</v>
-      </c>
-      <c r="E242">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="C243" s="2">
-        <v>3</v>
-      </c>
-      <c r="D243">
-        <v>2</v>
-      </c>
-      <c r="E243">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="C244" s="2">
-        <v>2</v>
-      </c>
-      <c r="D244">
-        <v>2</v>
-      </c>
-      <c r="E244">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="C245" s="2">
-        <v>2</v>
-      </c>
-      <c r="D245">
-        <v>2</v>
-      </c>
-      <c r="E245">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="C246" s="2">
-        <v>2</v>
-      </c>
-      <c r="D246">
-        <v>2</v>
-      </c>
-      <c r="E246">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="C247" s="2">
-        <v>2</v>
-      </c>
-      <c r="D247">
-        <v>2</v>
-      </c>
-      <c r="E247">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="C248" s="2">
-        <v>2</v>
-      </c>
-      <c r="D248">
-        <v>2</v>
-      </c>
-      <c r="E248">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>82</v>
-      </c>
-      <c r="B249" s="3">
-        <v>43294</v>
-      </c>
-      <c r="C249">
-        <v>2</v>
-      </c>
-      <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="C250">
-        <v>2</v>
-      </c>
-      <c r="D250">
-        <v>2</v>
-      </c>
-      <c r="E250">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="C251">
-        <v>2</v>
-      </c>
-      <c r="D251">
-        <v>2</v>
-      </c>
-      <c r="E251">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="C252">
-        <v>2</v>
-      </c>
-      <c r="D252">
-        <v>2</v>
-      </c>
-      <c r="E252">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="C253">
-        <v>3</v>
-      </c>
-      <c r="D253">
-        <v>2</v>
-      </c>
-      <c r="E253">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="C254">
-        <v>3</v>
-      </c>
-      <c r="D254">
-        <v>2</v>
-      </c>
-      <c r="E254">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="C255">
-        <v>3</v>
-      </c>
-      <c r="D255">
-        <v>2</v>
-      </c>
-      <c r="E255">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="C256">
-        <v>2</v>
-      </c>
-      <c r="D256">
-        <v>2</v>
-      </c>
-      <c r="E256">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="3:5">
-      <c r="C257">
-        <v>2</v>
-      </c>
-      <c r="D257">
-        <v>2</v>
-      </c>
-      <c r="E257">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="3:5">
-      <c r="C258">
-        <v>3</v>
-      </c>
-      <c r="D258">
-        <v>2</v>
-      </c>
-      <c r="E258">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="3:5">
-      <c r="C259">
-        <v>3</v>
-      </c>
-      <c r="D259">
-        <v>2</v>
-      </c>
-      <c r="E259">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="3:5">
-      <c r="C260">
-        <v>2</v>
-      </c>
-      <c r="D260">
-        <v>2</v>
-      </c>
-      <c r="E260">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="3:5">
-      <c r="C261">
-        <v>3</v>
-      </c>
-      <c r="D261">
-        <v>2</v>
-      </c>
-      <c r="E261">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="3:5">
-      <c r="C262">
-        <v>2</v>
-      </c>
-      <c r="D262">
-        <v>2</v>
-      </c>
-      <c r="E262">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="3:5">
-      <c r="C263">
-        <v>2</v>
-      </c>
-      <c r="D263">
-        <v>2</v>
-      </c>
-      <c r="E263">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="3:5">
-      <c r="C264">
-        <v>2</v>
-      </c>
-      <c r="D264">
-        <v>2</v>
-      </c>
-      <c r="E264">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="3:5">
-      <c r="C265">
-        <v>2</v>
-      </c>
-      <c r="D265">
-        <v>2</v>
-      </c>
-      <c r="E265">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="3:5">
-      <c r="C266">
-        <v>2</v>
-      </c>
-      <c r="D266">
-        <v>2</v>
-      </c>
-      <c r="E266">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="3:5">
-      <c r="C267">
-        <v>3</v>
-      </c>
-      <c r="D267">
-        <v>2</v>
-      </c>
-      <c r="E267">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="3:5">
-      <c r="C268">
-        <v>2</v>
-      </c>
-      <c r="D268">
-        <v>2</v>
-      </c>
-      <c r="E268">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="3:5">
-      <c r="C269">
-        <v>4</v>
-      </c>
-      <c r="D269">
-        <v>2</v>
-      </c>
-      <c r="E269">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="270" spans="3:5">
-      <c r="C270">
-        <v>3</v>
-      </c>
-      <c r="D270">
-        <v>2</v>
-      </c>
-      <c r="E270">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="3:5">
-      <c r="C271">
-        <v>2</v>
-      </c>
-      <c r="D271">
-        <v>2</v>
-      </c>
-      <c r="E271">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="3:5">
-      <c r="C272">
-        <v>3</v>
-      </c>
-      <c r="D272">
-        <v>2</v>
-      </c>
-      <c r="E272">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="C273">
-        <v>4</v>
-      </c>
-      <c r="D273">
-        <v>2</v>
-      </c>
-      <c r="E273">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="C274">
-        <v>3</v>
-      </c>
-      <c r="D274">
-        <v>2</v>
-      </c>
-      <c r="E274">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" t="s">
-        <v>20</v>
-      </c>
-      <c r="B275" t="s">
-        <v>7</v>
-      </c>
-      <c r="C275" s="2">
-        <v>4</v>
-      </c>
-      <c r="D275">
-        <v>2</v>
-      </c>
-      <c r="E275">
-        <f t="shared" ref="E275:E295" si="5">C275*D275</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="C276" s="2">
-        <v>4</v>
-      </c>
-      <c r="D276">
-        <v>2</v>
-      </c>
-      <c r="E276">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="C277" s="2">
-        <v>4</v>
-      </c>
-      <c r="D277">
-        <v>2</v>
-      </c>
-      <c r="E277">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="C278" s="2">
-        <v>3</v>
-      </c>
-      <c r="D278">
-        <v>2</v>
-      </c>
-      <c r="E278">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="C279" s="2">
-        <v>3</v>
-      </c>
-      <c r="D279">
-        <v>2</v>
-      </c>
-      <c r="E279">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="C280" s="2">
-        <v>3</v>
-      </c>
-      <c r="D280">
-        <v>2</v>
-      </c>
-      <c r="E280">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="C281" s="2">
-        <v>3</v>
-      </c>
-      <c r="D281">
-        <v>2</v>
-      </c>
-      <c r="E281">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="C282" s="2">
-        <v>4</v>
-      </c>
-      <c r="D282">
-        <v>2</v>
-      </c>
-      <c r="E282">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="C283" s="2">
-        <v>3</v>
-      </c>
-      <c r="D283">
-        <v>2</v>
-      </c>
-      <c r="E283">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="C284" s="2">
-        <v>3</v>
-      </c>
-      <c r="D284">
-        <v>2</v>
-      </c>
-      <c r="E284">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="C285" s="2">
-        <v>3</v>
-      </c>
-      <c r="D285">
-        <v>2</v>
-      </c>
-      <c r="E285">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="C286" s="2">
-        <v>3</v>
-      </c>
-      <c r="D286">
-        <v>2</v>
-      </c>
-      <c r="E286">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="C287" s="2">
-        <v>3</v>
-      </c>
-      <c r="D287">
-        <v>2</v>
-      </c>
-      <c r="E287">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="C288" s="2">
-        <v>3</v>
-      </c>
-      <c r="D288">
-        <v>2</v>
-      </c>
-      <c r="E288">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="C289" s="2">
-        <v>3</v>
-      </c>
-      <c r="D289">
-        <v>2</v>
-      </c>
-      <c r="E289">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="C290" s="2">
-        <v>3</v>
-      </c>
-      <c r="D290">
-        <v>2</v>
-      </c>
-      <c r="E290">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="C291" s="2">
-        <v>3</v>
-      </c>
-      <c r="D291">
-        <v>2</v>
-      </c>
-      <c r="E291">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="C292" s="2">
-        <v>3</v>
-      </c>
-      <c r="D292">
-        <v>2</v>
-      </c>
-      <c r="E292">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="C293" s="2">
-        <v>3</v>
-      </c>
-      <c r="D293">
-        <v>2</v>
-      </c>
-      <c r="E293">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="C294" s="2">
-        <v>2</v>
-      </c>
-      <c r="D294">
-        <v>2</v>
-      </c>
-      <c r="E294">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="C295" s="2">
-        <v>2</v>
-      </c>
-      <c r="D295">
-        <v>2</v>
-      </c>
-      <c r="E295">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" t="s">
-        <v>83</v>
-      </c>
-      <c r="B296" s="3">
-        <v>43294</v>
-      </c>
-      <c r="C296">
-        <v>3</v>
-      </c>
-      <c r="D296">
-        <v>2</v>
-      </c>
-      <c r="E296">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="C297">
-        <v>3</v>
-      </c>
-      <c r="D297">
-        <v>2</v>
-      </c>
-      <c r="E297">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="C298">
-        <v>3</v>
-      </c>
-      <c r="D298">
-        <v>2</v>
-      </c>
-      <c r="E298">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="C299">
-        <v>3</v>
-      </c>
-      <c r="D299">
-        <v>2</v>
-      </c>
-      <c r="E299">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="C300">
-        <v>3</v>
-      </c>
-      <c r="D300">
-        <v>2</v>
-      </c>
-      <c r="E300">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="C301">
-        <v>3</v>
-      </c>
-      <c r="D301">
-        <v>2</v>
-      </c>
-      <c r="E301">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="C302">
-        <v>3</v>
-      </c>
-      <c r="D302">
-        <v>2</v>
-      </c>
-      <c r="E302">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="C303">
-        <v>3</v>
-      </c>
-      <c r="D303">
-        <v>2</v>
-      </c>
-      <c r="E303">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="C304">
-        <v>3</v>
-      </c>
-      <c r="D304">
-        <v>2</v>
-      </c>
-      <c r="E304">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="305" spans="3:5">
-      <c r="C305">
-        <v>3</v>
-      </c>
-      <c r="D305">
-        <v>2</v>
-      </c>
-      <c r="E305">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="306" spans="3:5">
-      <c r="C306">
-        <v>3</v>
-      </c>
-      <c r="D306">
-        <v>2</v>
-      </c>
-      <c r="E306">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="307" spans="3:5">
-      <c r="C307">
-        <v>2</v>
-      </c>
-      <c r="D307">
-        <v>2</v>
-      </c>
-      <c r="E307">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="3:5">
-      <c r="C308">
-        <v>2</v>
-      </c>
-      <c r="D308">
-        <v>2</v>
-      </c>
-      <c r="E308">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="3:5">
-      <c r="C309">
-        <v>2</v>
-      </c>
-      <c r="D309">
-        <v>2</v>
-      </c>
-      <c r="E309">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="3:5">
-      <c r="C310">
-        <v>2</v>
-      </c>
-      <c r="D310">
-        <v>2</v>
-      </c>
-      <c r="E310">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="3:5">
-      <c r="C311">
-        <v>2</v>
-      </c>
-      <c r="D311">
-        <v>2</v>
-      </c>
-      <c r="E311">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="3:5">
-      <c r="C312">
-        <v>2</v>
-      </c>
-      <c r="D312">
-        <v>2</v>
-      </c>
-      <c r="E312">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="3:5">
-      <c r="C313">
-        <v>2</v>
-      </c>
-      <c r="D313">
-        <v>2</v>
-      </c>
-      <c r="E313">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="3:5">
-      <c r="C314">
-        <v>2</v>
-      </c>
-      <c r="D314">
-        <v>2</v>
-      </c>
-      <c r="E314">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="3:5">
-      <c r="C315">
-        <v>2</v>
-      </c>
-      <c r="D315">
-        <v>2</v>
-      </c>
-      <c r="E315">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="3:5">
-      <c r="C316">
-        <v>3</v>
-      </c>
-      <c r="D316">
-        <v>2</v>
-      </c>
-      <c r="E316">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="317" spans="3:5">
-      <c r="C317">
-        <v>2</v>
-      </c>
-      <c r="D317">
-        <v>2</v>
-      </c>
-      <c r="E317">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="3:5">
-      <c r="C318">
-        <v>3</v>
-      </c>
-      <c r="D318">
-        <v>2</v>
-      </c>
-      <c r="E318">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="319" spans="3:5">
-      <c r="C319">
-        <v>2</v>
-      </c>
-      <c r="D319">
-        <v>2</v>
-      </c>
-      <c r="E319">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="3:5">
-      <c r="C320">
-        <v>2</v>
-      </c>
-      <c r="D320">
-        <v>2</v>
-      </c>
-      <c r="E320">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="C321">
-        <v>3</v>
-      </c>
-      <c r="D321">
-        <v>2</v>
-      </c>
-      <c r="E321">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="C322">
-        <v>2</v>
-      </c>
-      <c r="D322">
-        <v>2</v>
-      </c>
-      <c r="E322">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="C323">
-        <v>3</v>
-      </c>
-      <c r="D323">
-        <v>2</v>
-      </c>
-      <c r="E323">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" t="s">
-        <v>21</v>
-      </c>
-      <c r="B324" t="s">
-        <v>7</v>
-      </c>
-      <c r="C324" s="2">
-        <v>2</v>
-      </c>
-      <c r="D324">
-        <v>2</v>
-      </c>
-      <c r="E324">
-        <f t="shared" ref="E324:E355" si="6">C324*D324</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="C325" s="2">
-        <v>4</v>
-      </c>
-      <c r="D325">
-        <v>2</v>
-      </c>
-      <c r="E325">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="C326" s="2">
-        <v>3</v>
-      </c>
-      <c r="D326">
-        <v>2</v>
-      </c>
-      <c r="E326">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="C327" s="2">
-        <v>3</v>
-      </c>
-      <c r="D327">
-        <v>2</v>
-      </c>
-      <c r="E327">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="C328" s="2">
-        <v>3</v>
-      </c>
-      <c r="D328">
-        <v>2</v>
-      </c>
-      <c r="E328">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="C329" s="2">
-        <v>4</v>
-      </c>
-      <c r="D329">
-        <v>2</v>
-      </c>
-      <c r="E329">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" t="s">
-        <v>22</v>
-      </c>
-      <c r="B330" t="s">
-        <v>7</v>
-      </c>
-      <c r="C330" s="2">
-        <v>3</v>
-      </c>
-      <c r="D330">
-        <v>2</v>
-      </c>
-      <c r="E330">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="C331" s="2">
-        <v>3</v>
-      </c>
-      <c r="D331">
-        <v>2</v>
-      </c>
-      <c r="E331">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="C332" s="2">
-        <v>4</v>
-      </c>
-      <c r="D332">
-        <v>2</v>
-      </c>
-      <c r="E332">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="C333" s="2">
-        <v>2</v>
-      </c>
-      <c r="D333">
-        <v>2</v>
-      </c>
-      <c r="E333">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="C334" s="2">
-        <v>3</v>
-      </c>
-      <c r="D334">
-        <v>2</v>
-      </c>
-      <c r="E334">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="C335" s="2">
-        <v>3</v>
-      </c>
-      <c r="D335">
-        <v>2</v>
-      </c>
-      <c r="E335">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="C336" s="2">
-        <v>3</v>
-      </c>
-      <c r="D336">
-        <v>2</v>
-      </c>
-      <c r="E336">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="C337" s="2">
-        <v>2</v>
-      </c>
-      <c r="D337">
-        <v>2</v>
-      </c>
-      <c r="E337">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="C338" s="2">
-        <v>3</v>
-      </c>
-      <c r="D338">
-        <v>2</v>
-      </c>
-      <c r="E338">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="C339" s="2">
-        <v>4</v>
-      </c>
-      <c r="D339">
-        <v>2</v>
-      </c>
-      <c r="E339">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="C340" s="2">
-        <v>3</v>
-      </c>
-      <c r="D340">
-        <v>2</v>
-      </c>
-      <c r="E340">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="C341" s="2">
-        <v>3</v>
-      </c>
-      <c r="D341">
-        <v>2</v>
-      </c>
-      <c r="E341">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="C342" s="2">
-        <v>2</v>
-      </c>
-      <c r="D342">
-        <v>2</v>
-      </c>
-      <c r="E342">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" t="s">
-        <v>23</v>
-      </c>
-      <c r="B343" t="s">
-        <v>7</v>
-      </c>
-      <c r="C343" s="2">
-        <v>3</v>
-      </c>
-      <c r="D343">
-        <v>2</v>
-      </c>
-      <c r="E343">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="C344" s="2">
-        <v>4</v>
-      </c>
-      <c r="D344">
-        <v>2</v>
-      </c>
-      <c r="E344">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="C345" s="2">
-        <v>2</v>
-      </c>
-      <c r="D345">
-        <v>2</v>
-      </c>
-      <c r="E345">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="C346" s="2">
-        <v>3</v>
-      </c>
-      <c r="D346">
-        <v>2</v>
-      </c>
-      <c r="E346">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="C347" s="2">
-        <v>2</v>
-      </c>
-      <c r="D347">
-        <v>2</v>
-      </c>
-      <c r="E347">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="C348" s="2">
-        <v>2</v>
-      </c>
-      <c r="D348">
-        <v>2</v>
-      </c>
-      <c r="E348">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="C349" s="2">
-        <v>3</v>
-      </c>
-      <c r="D349">
-        <v>2</v>
-      </c>
-      <c r="E349">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="C350" s="2">
-        <v>3</v>
-      </c>
-      <c r="D350">
-        <v>2</v>
-      </c>
-      <c r="E350">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="C351" s="2">
-        <v>3</v>
-      </c>
-      <c r="D351">
-        <v>2</v>
-      </c>
-      <c r="E351">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="C352" s="2">
-        <v>3</v>
-      </c>
-      <c r="D352">
-        <v>2</v>
-      </c>
-      <c r="E352">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="C353" s="2">
-        <v>2</v>
-      </c>
-      <c r="D353">
-        <v>2</v>
-      </c>
-      <c r="E353">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="C354" s="2">
-        <v>3</v>
-      </c>
-      <c r="D354">
-        <v>2</v>
-      </c>
-      <c r="E354">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="C355" s="2">
-        <v>3</v>
-      </c>
-      <c r="D355">
-        <v>2</v>
-      </c>
-      <c r="E355">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" t="s">
-        <v>24</v>
-      </c>
-      <c r="B356" t="s">
-        <v>7</v>
-      </c>
-      <c r="C356" s="2">
-        <v>5</v>
-      </c>
-      <c r="D356">
-        <v>2</v>
-      </c>
-      <c r="E356">
-        <f t="shared" ref="E356:E387" si="7">C356*D356</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="C357" s="2">
-        <v>4</v>
-      </c>
-      <c r="D357">
-        <v>2</v>
-      </c>
-      <c r="E357">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="C358" s="2">
-        <v>4</v>
-      </c>
-      <c r="D358">
-        <v>2</v>
-      </c>
-      <c r="E358">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="C359" s="2">
-        <v>4</v>
-      </c>
-      <c r="D359">
-        <v>2</v>
-      </c>
-      <c r="E359">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="C360" s="2">
-        <v>4</v>
-      </c>
-      <c r="D360">
-        <v>2</v>
-      </c>
-      <c r="E360">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="C361" s="2">
-        <v>3</v>
-      </c>
-      <c r="D361">
-        <v>2</v>
-      </c>
-      <c r="E361">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="C362" s="2">
-        <v>4</v>
-      </c>
-      <c r="D362">
-        <v>2</v>
-      </c>
-      <c r="E362">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="C363" s="2">
-        <v>3</v>
-      </c>
-      <c r="D363">
-        <v>2</v>
-      </c>
-      <c r="E363">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="C364" s="2">
-        <v>4</v>
-      </c>
-      <c r="D364">
-        <v>2</v>
-      </c>
-      <c r="E364">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="C365" s="2">
-        <v>3</v>
-      </c>
-      <c r="D365">
-        <v>2</v>
-      </c>
-      <c r="E365">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="C366" s="2">
-        <v>3</v>
-      </c>
-      <c r="D366">
-        <v>2</v>
-      </c>
-      <c r="E366">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="C367" s="2">
-        <v>3</v>
-      </c>
-      <c r="D367">
-        <v>2</v>
-      </c>
-      <c r="E367">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="C368" s="2">
-        <v>3</v>
-      </c>
-      <c r="D368">
-        <v>2</v>
-      </c>
-      <c r="E368">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="C369" s="2">
-        <v>4</v>
-      </c>
-      <c r="D369">
-        <v>2</v>
-      </c>
-      <c r="E369">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="C370" s="2">
-        <v>3</v>
-      </c>
-      <c r="D370">
-        <v>2</v>
-      </c>
-      <c r="E370">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="C371" s="2">
-        <v>4</v>
-      </c>
-      <c r="D371">
-        <v>2</v>
-      </c>
-      <c r="E371">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="C372" s="2">
-        <v>3</v>
-      </c>
-      <c r="D372">
-        <v>2</v>
-      </c>
-      <c r="E372">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="C373" s="2">
-        <v>4</v>
-      </c>
-      <c r="D373">
-        <v>2</v>
-      </c>
-      <c r="E373">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="C374" s="2">
-        <v>4</v>
-      </c>
-      <c r="D374">
-        <v>2</v>
-      </c>
-      <c r="E374">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="C375" s="2">
-        <v>2</v>
-      </c>
-      <c r="D375">
-        <v>2</v>
-      </c>
-      <c r="E375">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="C376" s="2">
-        <v>4</v>
-      </c>
-      <c r="D376">
-        <v>2</v>
-      </c>
-      <c r="E376">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" t="s">
-        <v>25</v>
-      </c>
-      <c r="B377" t="s">
-        <v>7</v>
-      </c>
-      <c r="C377" s="2">
-        <v>2</v>
-      </c>
-      <c r="D377">
-        <v>2</v>
-      </c>
-      <c r="E377">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="C378" s="2">
-        <v>3</v>
-      </c>
-      <c r="D378">
-        <v>2</v>
-      </c>
-      <c r="E378">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
-      <c r="C379" s="2">
-        <v>3</v>
-      </c>
-      <c r="D379">
-        <v>2</v>
-      </c>
-      <c r="E379">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="C380" s="2">
-        <v>4</v>
-      </c>
-      <c r="D380">
-        <v>2</v>
-      </c>
-      <c r="E380">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="C381" s="2">
-        <v>3</v>
-      </c>
-      <c r="D381">
-        <v>2</v>
-      </c>
-      <c r="E381">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="C382" s="2">
-        <v>3</v>
-      </c>
-      <c r="D382">
-        <v>2</v>
-      </c>
-      <c r="E382">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="C383" s="2">
-        <v>2</v>
-      </c>
-      <c r="D383">
-        <v>2</v>
-      </c>
-      <c r="E383">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="C384" s="2">
-        <v>4</v>
-      </c>
-      <c r="D384">
-        <v>2</v>
-      </c>
-      <c r="E384">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="385" spans="3:5">
-      <c r="C385" s="2">
-        <v>3</v>
-      </c>
-      <c r="D385">
-        <v>2</v>
-      </c>
-      <c r="E385">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="386" spans="3:5">
-      <c r="C386" s="2">
-        <v>3</v>
-      </c>
-      <c r="D386">
-        <v>2</v>
-      </c>
-      <c r="E386">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="387" spans="3:5">
-      <c r="C387" s="2">
-        <v>4</v>
-      </c>
-      <c r="D387">
-        <v>2</v>
-      </c>
-      <c r="E387">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="388" spans="3:5">
-      <c r="C388" s="2">
-        <v>3</v>
-      </c>
-      <c r="D388">
-        <v>2</v>
-      </c>
-      <c r="E388">
-        <f t="shared" ref="E388:E400" si="8">C388*D388</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="389" spans="3:5">
-      <c r="C389" s="2">
-        <v>3</v>
-      </c>
-      <c r="D389">
-        <v>2</v>
-      </c>
-      <c r="E389">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="390" spans="3:5">
-      <c r="C390" s="2">
-        <v>4</v>
-      </c>
-      <c r="D390">
-        <v>2</v>
-      </c>
-      <c r="E390">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="391" spans="3:5">
-      <c r="C391" s="2">
-        <v>4</v>
-      </c>
-      <c r="D391">
-        <v>2</v>
-      </c>
-      <c r="E391">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="392" spans="3:5">
-      <c r="C392" s="2">
-        <v>4</v>
-      </c>
-      <c r="D392">
-        <v>2</v>
-      </c>
-      <c r="E392">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="393" spans="3:5">
-      <c r="C393" s="2">
-        <v>4</v>
-      </c>
-      <c r="D393">
-        <v>2</v>
-      </c>
-      <c r="E393">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="394" spans="3:5">
-      <c r="C394" s="2">
-        <v>4</v>
-      </c>
-      <c r="D394">
-        <v>2</v>
-      </c>
-      <c r="E394">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="395" spans="3:5">
-      <c r="C395" s="2">
-        <v>4</v>
-      </c>
-      <c r="D395">
-        <v>2</v>
-      </c>
-      <c r="E395">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="396" spans="3:5">
-      <c r="C396" s="2">
-        <v>3</v>
-      </c>
-      <c r="D396">
-        <v>2</v>
-      </c>
-      <c r="E396">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="397" spans="3:5">
-      <c r="C397" s="2">
-        <v>4</v>
-      </c>
-      <c r="D397">
-        <v>2</v>
-      </c>
-      <c r="E397">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="398" spans="3:5">
-      <c r="C398" s="2">
-        <v>3</v>
-      </c>
-      <c r="D398">
-        <v>2</v>
-      </c>
-      <c r="E398">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="399" spans="3:5">
-      <c r="C399" s="2">
-        <v>3</v>
-      </c>
-      <c r="D399">
-        <v>2</v>
-      </c>
-      <c r="E399">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="400" spans="3:5">
-      <c r="C400" s="2">
-        <v>4</v>
-      </c>
-      <c r="D400">
-        <v>2</v>
-      </c>
-      <c r="E400">
-        <f t="shared" si="8"/>
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="9">
+        <v>4</v>
+      </c>
+      <c r="D192" s="8">
+        <v>2</v>
+      </c>
+      <c r="E192" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="9">
+        <v>4</v>
+      </c>
+      <c r="D193" s="8">
+        <v>2</v>
+      </c>
+      <c r="E193" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="9">
+        <v>4</v>
+      </c>
+      <c r="D194" s="8">
+        <v>2</v>
+      </c>
+      <c r="E194" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="9">
+        <v>4</v>
+      </c>
+      <c r="D195" s="8">
+        <v>2</v>
+      </c>
+      <c r="E195" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="9">
+        <v>4</v>
+      </c>
+      <c r="D196" s="8">
+        <v>2</v>
+      </c>
+      <c r="E196" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="9">
+        <v>3</v>
+      </c>
+      <c r="D197" s="8">
+        <v>2</v>
+      </c>
+      <c r="E197" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="9">
+        <v>4</v>
+      </c>
+      <c r="D198" s="8">
+        <v>2</v>
+      </c>
+      <c r="E198" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="9">
+        <v>3</v>
+      </c>
+      <c r="D199" s="8">
+        <v>2</v>
+      </c>
+      <c r="E199" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="9">
+        <v>3</v>
+      </c>
+      <c r="D200" s="8">
+        <v>2</v>
+      </c>
+      <c r="E200" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="9">
+        <v>4</v>
+      </c>
+      <c r="D201" s="8">
+        <v>2</v>
+      </c>
+      <c r="E201" s="8">
         <v>8</v>
       </c>
     </row>
@@ -15219,7 +13170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A194" workbookViewId="0">
       <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
@@ -17832,8 +15783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="F228" sqref="F228"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
